--- a/data/georgia_census/samegrelo/zugdidi/population_total.xlsx
+++ b/data/georgia_census/samegrelo/zugdidi/population_total.xlsx
@@ -1365,13 +1365,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{374314CF-46C2-4BE5-BEC3-D3E44B4A9532}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7442DD-DF7F-415A-85CF-E300140A8456}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D97F7206-F06B-4D8E-AF3D-A1F3CD3E1659}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43652099-8447-4A9F-A234-E24DB34859FC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D88C9ABB-6EA3-4D90-8E89-A8650F87351B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72245E1E-4884-40AF-8FFF-1214152CFE0B}"/>
 </file>